--- a/Практическая работа 8(1).xlsx
+++ b/Практическая работа 8(1).xlsx
@@ -153,15 +153,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -512,17 +512,17 @@
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>190</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>220</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <f>C4-B4</f>
         <v>30</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="9">
         <f>D4*B1</f>
         <v>4.5</v>
       </c>
@@ -531,17 +531,17 @@
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>157</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>189</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <f>C5-B5</f>
         <v>32</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="9">
         <f>D5*B1</f>
         <v>4.8</v>
       </c>
@@ -550,17 +550,17 @@
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>213</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>245</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <f t="shared" ref="D6:D10" si="0">C6-B6</f>
         <v>32</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="9">
         <f>D6*B1</f>
         <v>4.8</v>
       </c>
@@ -569,17 +569,17 @@
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>94</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>132</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="9">
         <f>D7*B1</f>
         <v>5.7</v>
       </c>
@@ -588,17 +588,17 @@
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>152</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>179</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="9">
         <f>D8*B1</f>
         <v>4.05</v>
       </c>
@@ -607,17 +607,17 @@
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <v>148</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>169</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="9">
         <f>D9*B1</f>
         <v>3.15</v>
       </c>
@@ -626,26 +626,26 @@
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>165</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>193</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="9">
         <f>D10*B1</f>
         <v>4.2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="9"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="8"/>
@@ -654,7 +654,7 @@
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="10">
         <f>SUM(E4:E10)</f>
         <v>31.2</v>
       </c>
@@ -666,7 +666,7 @@
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="11">
         <f>AVERAGE(D4:D10)</f>
         <v>29.714285714285715</v>
       </c>
@@ -678,7 +678,7 @@
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="10">
         <f>MAX(D4:D10)</f>
         <v>38</v>
       </c>
@@ -690,7 +690,7 @@
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="10">
         <f>MIN(D4:D10)</f>
         <v>21</v>
       </c>
